--- a/public/files/template/inventory/stok_opname.xlsx
+++ b/public/files/template/inventory/stok_opname.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Barang Habis Pakai Stok Opname </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>: BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>: [b.tahun]</t>
   </si>
 </sst>
 </file>
@@ -185,9 +191,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +220,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,222 +631,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="str">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="str">
         <f>'[1]KIB A'!B3</f>
         <v>Provinsi</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="str">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="str">
         <f>'[1]KIB A'!B4</f>
         <v>Kab./Kota</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="str">
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="str">
         <f>'[1]KIB A'!B5</f>
         <v>Bidang</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/public/files/template/inventory/stok_opname.xlsx
+++ b/public/files/template/inventory/stok_opname.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Barang Habis Pakai Stok Opname </t>
   </si>
@@ -36,42 +36,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>Nama Barang</t>
-  </si>
-  <si>
-    <t>Merek</t>
-  </si>
-  <si>
-    <t>Last Update</t>
-  </si>
-  <si>
-    <t>Jumlah Awal</t>
-  </si>
-  <si>
-    <t>Jumlah Akhir</t>
-  </si>
-  <si>
-    <t>Selisih</t>
-  </si>
-  <si>
     <t>[a.no;block=tbs:row]</t>
   </si>
   <si>
-    <t>[a.uraian]</t>
-  </si>
-  <si>
-    <t>[a.merek_tipe]</t>
-  </si>
-  <si>
-    <t>[a.jml_awal]</t>
-  </si>
-  <si>
-    <t>[a.jml_akhir]</t>
-  </si>
-  <si>
-    <t>[a.selisih]</t>
-  </si>
-  <si>
     <t>[a.tgl_opname]</t>
   </si>
   <si>
@@ -97,6 +64,36 @@
   </si>
   <si>
     <t>: [b.tahun]</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Nama Petugas</t>
+  </si>
+  <si>
+    <t>NIP Petugas</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>[a.nomor_opname]</t>
+  </si>
+  <si>
+    <t>[a.jenis_bhp]</t>
+  </si>
+  <si>
+    <t>[a.petugas_nama]</t>
+  </si>
+  <si>
+    <t>[a.petugas_nip]</t>
+  </si>
+  <si>
+    <t>[a.catatan]</t>
   </si>
 </sst>
 </file>
@@ -189,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,14 +213,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,60 +613,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -677,7 +675,7 @@
         <v>Provinsi</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
@@ -696,7 +694,7 @@
         <v>Kab./Kota</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
@@ -714,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1"/>
@@ -729,10 +727,10 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
@@ -750,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
@@ -768,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
@@ -787,7 +785,7 @@
         <v>Bidang</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
@@ -804,22 +802,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -836,42 +834,42 @@
         <v>4</v>
       </c>
       <c r="E12" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/files/template/inventory/stok_opname.xlsx
+++ b/public/files/template/inventory/stok_opname.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,12 +77,6 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Nama Petugas</t>
-  </si>
-  <si>
-    <t>NIP Petugas</t>
-  </si>
-  <si>
     <t>Catatan</t>
   </si>
   <si>
@@ -94,23 +93,20 @@
   </si>
   <si>
     <t>[a.catatan]</t>
+  </si>
+  <si>
+    <t>Nama Penaggungjawab</t>
+  </si>
+  <si>
+    <t>NIP Penanggungjawab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,10 +141,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,39 +193,39 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,6 +237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -367,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,9 +408,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +460,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,7 +656,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,8 +665,8 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -638,16 +680,16 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -798,72 +840,72 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +914,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
